--- a/AccessibleDashboardData/2021-08-23.xlsx
+++ b/AccessibleDashboardData/2021-08-23.xlsx
@@ -43896,7 +43896,7 @@
         <v>1565</v>
       </c>
       <c r="B4">
-        <v>13163</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="5" spans="1:2">
